--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_KimLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="60" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,81 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu oxi hóa, mất cấu hình</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nạp lại FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,MCH</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>125.212.203.114/15555</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn, module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Xử lý lai khay sim</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520.CAR01A05</t>
+  </si>
+  <si>
+    <t>112.78.4.103/9031</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi main</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi IC giao tiếp</t>
+  </si>
+  <si>
+    <t>Thay ic giao tiếp</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
   </si>
 </sst>
 </file>
@@ -434,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,6 +718,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,34 +766,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,41 +1108,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1109,58 +1187,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1185,30 +1263,30 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>1</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="70">
         <v>44858</v>
       </c>
       <c r="C6" s="57"/>
@@ -1224,18 +1302,30 @@
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="J6" s="61" t="s">
+        <v>83</v>
+      </c>
       <c r="K6" s="62"/>
       <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="63" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="66"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1247,7 +1337,7 @@
       <c r="A7" s="57">
         <v>2</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="70">
         <v>44858</v>
       </c>
       <c r="C7" s="57"/>
@@ -1263,18 +1353,30 @@
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="J7" s="61" t="s">
+        <v>86</v>
+      </c>
       <c r="K7" s="62"/>
       <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="M7" s="63" t="s">
+        <v>87</v>
+      </c>
       <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="66"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1284,7 +1386,7 @@
       <c r="A8" s="57">
         <v>3</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="70">
         <v>44858</v>
       </c>
       <c r="C8" s="57"/>
@@ -1298,18 +1400,30 @@
       <c r="G8" s="56"/>
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="J8" s="61" t="s">
+        <v>81</v>
+      </c>
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="M8" s="63" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
+      <c r="O8" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="66"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1452,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="66"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +1481,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="66"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1510,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="66"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1539,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1456,7 +1570,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1599,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1628,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1657,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1775,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1693,7 +1807,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2002,7 +2116,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2162,7 +2276,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2194,7 +2308,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2312,7 +2426,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -3259,13 +3373,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3277,6 +3384,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3287,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3304,7 +3418,7 @@
     <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
     <col min="10" max="10" width="53" style="19" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" style="25" customWidth="1"/>
     <col min="13" max="13" width="58" style="19" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
@@ -3320,41 +3434,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3399,58 +3513,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3475,23 +3589,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,18 +3628,32 @@
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="J6" s="61" t="s">
+        <v>89</v>
+      </c>
       <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="L6" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>90</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="66"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3551,20 +3679,40 @@
       <c r="G7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="H7" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
+      <c r="O7" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>88</v>
+      </c>
       <c r="S7" s="66"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3590,18 +3738,30 @@
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="J8" s="61" t="s">
+        <v>75</v>
+      </c>
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="61"/>
+      <c r="M8" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="71">
+        <v>320000</v>
+      </c>
       <c r="O8" s="61"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
+      <c r="P8" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="66"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3619,26 +3779,44 @@
         <v>45</v>
       </c>
       <c r="E9" s="57">
-        <v>860906041166781</v>
+        <v>860906041166718</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="H9" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>66</v>
+      </c>
       <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
+      <c r="M9" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="64"/>
+      <c r="O9" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="S9" s="66"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3667,7 +3845,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="66"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3696,7 +3874,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="66"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3725,7 +3903,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3756,7 +3934,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3785,7 +3963,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3814,7 +3992,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3843,7 +4021,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3961,7 +4139,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3993,7 +4171,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4025,7 +4203,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4238,7 +4416,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4302,7 +4480,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4334,7 +4512,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -4430,7 +4608,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4494,7 +4672,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5559,13 +5737,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5577,6 +5748,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5620,41 +5798,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5699,58 +5877,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -5775,23 +5953,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,7 +5995,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5848,7 +6026,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5877,7 +6055,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5906,7 +6084,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5935,7 +6113,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5964,7 +6142,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5993,7 +6171,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6024,7 +6202,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6053,7 +6231,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6082,7 +6260,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6111,7 +6289,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7342,13 +7520,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7360,6 +7531,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_KimLong.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Giữ lại</t>
+  </si>
+  <si>
+    <t>05/11/22</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -724,6 +730,30 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,34 +769,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,15 +1093,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="53" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
@@ -1108,41 +1126,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1164,7 +1182,7 @@
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1187,62 +1205,62 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="68" t="s">
@@ -1263,23 +1281,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1307,9 @@
       <c r="B6" s="70">
         <v>44858</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="87" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="56" t="s">
         <v>57</v>
       </c>
@@ -1325,7 +1345,7 @@
       </c>
       <c r="S6" s="66"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1340,7 +1360,9 @@
       <c r="B7" s="70">
         <v>44858</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="87" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="56" t="s">
         <v>57</v>
       </c>
@@ -1376,7 +1398,7 @@
       </c>
       <c r="S7" s="66"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1411,9 @@
       <c r="B8" s="70">
         <v>44858</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="87" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" s="56" t="s">
         <v>57</v>
       </c>
@@ -1398,7 +1422,9 @@
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="59" t="s">
+        <v>91</v>
+      </c>
       <c r="I8" s="60"/>
       <c r="J8" s="61" t="s">
         <v>81</v>
@@ -1423,7 +1449,7 @@
       </c>
       <c r="S8" s="66"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="56"/>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
@@ -1452,7 +1478,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="66"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="59"/>
       <c r="E10" s="65"/>
       <c r="F10" s="59"/>
@@ -1481,7 +1507,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="66"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="59"/>
       <c r="E11" s="65"/>
       <c r="F11" s="59"/>
@@ -1510,7 +1536,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="66"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
@@ -1539,7 +1565,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1552,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="37"/>
@@ -1570,7 +1596,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="47"/>
@@ -1599,7 +1625,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="47"/>
@@ -1628,7 +1654,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="47"/>
@@ -1657,7 +1683,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1668,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
       <c r="F17" s="47"/>
@@ -1694,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
       <c r="F18" s="47"/>
@@ -1721,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="37"/>
       <c r="E19" s="38"/>
       <c r="F19" s="47"/>
@@ -1752,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
       <c r="F20" s="47"/>
@@ -1784,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="47"/>
@@ -1816,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="47"/>
@@ -1848,7 +1874,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
       <c r="F23" s="47"/>
@@ -1875,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="47"/>
@@ -1902,7 +1928,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="47"/>
@@ -1933,7 +1959,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
       <c r="F26" s="47"/>
@@ -1965,7 +1991,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
       <c r="F27" s="47"/>
@@ -1997,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
       <c r="F28" s="47"/>
@@ -2029,7 +2055,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
       <c r="F29" s="47"/>
@@ -2061,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="37"/>
       <c r="E30" s="38"/>
       <c r="F30" s="47"/>
@@ -2093,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="37"/>
       <c r="E31" s="38"/>
       <c r="F31" s="47"/>
@@ -2125,7 +2151,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="37"/>
       <c r="E32" s="38"/>
       <c r="F32" s="47"/>
@@ -2157,7 +2183,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
       <c r="F33" s="47"/>
@@ -2189,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="37"/>
       <c r="E34" s="38"/>
       <c r="F34" s="47"/>
@@ -2221,7 +2247,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="37"/>
       <c r="E35" s="38"/>
       <c r="F35" s="47"/>
@@ -2253,7 +2279,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="37"/>
       <c r="E36" s="38"/>
       <c r="F36" s="47"/>
@@ -2285,7 +2311,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="37"/>
       <c r="E37" s="38"/>
       <c r="F37" s="47"/>
@@ -2317,7 +2343,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
       <c r="F38" s="47"/>
@@ -2344,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="37"/>
       <c r="E39" s="38"/>
       <c r="F39" s="47"/>
@@ -2371,7 +2397,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="37"/>
       <c r="E40" s="38"/>
       <c r="F40" s="47"/>
@@ -2403,7 +2429,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="37"/>
       <c r="E41" s="38"/>
       <c r="F41" s="47"/>
@@ -2435,7 +2461,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="37"/>
       <c r="E42" s="38"/>
       <c r="F42" s="47"/>
@@ -2462,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="37"/>
       <c r="E43" s="38"/>
       <c r="F43" s="47"/>
@@ -2489,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="37"/>
       <c r="E44" s="38"/>
       <c r="F44" s="47"/>
@@ -2525,7 +2551,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
       <c r="F45" s="47"/>
@@ -2564,7 +2590,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="37"/>
       <c r="E46" s="38"/>
       <c r="F46" s="47"/>
@@ -2603,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="37"/>
       <c r="E47" s="38"/>
       <c r="F47" s="47"/>
@@ -2642,7 +2668,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="37"/>
       <c r="E48" s="38"/>
       <c r="F48" s="47"/>
@@ -2684,7 +2710,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="37"/>
       <c r="E49" s="38"/>
       <c r="F49" s="47"/>
@@ -2712,7 +2738,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
       <c r="F50" s="47"/>
@@ -2740,7 +2766,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="37"/>
       <c r="E51" s="38"/>
       <c r="F51" s="47"/>
@@ -2768,7 +2794,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="37"/>
       <c r="E52" s="38"/>
       <c r="F52" s="47"/>
@@ -2796,7 +2822,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="37"/>
       <c r="E53" s="38"/>
       <c r="F53" s="47"/>
@@ -2824,7 +2850,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="37"/>
       <c r="E54" s="38"/>
       <c r="F54" s="47"/>
@@ -2852,7 +2878,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="37"/>
       <c r="E55" s="38"/>
       <c r="F55" s="47"/>
@@ -2880,7 +2906,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="37"/>
       <c r="E56" s="38"/>
       <c r="F56" s="47"/>
@@ -2906,7 +2932,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="37"/>
       <c r="E57" s="38"/>
       <c r="F57" s="47"/>
@@ -2932,7 +2958,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="37"/>
       <c r="E58" s="38"/>
       <c r="F58" s="47"/>
@@ -2955,7 +2981,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="37"/>
       <c r="E59" s="38"/>
       <c r="F59" s="37"/>
@@ -2978,7 +3004,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="37"/>
       <c r="E60" s="38"/>
       <c r="F60" s="37"/>
@@ -3001,7 +3027,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -3026,7 +3052,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
@@ -3051,7 +3077,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -3076,7 +3102,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
@@ -3101,7 +3127,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
@@ -3373,6 +3399,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3384,13 +3417,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3401,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3434,41 +3460,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3513,58 +3539,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3589,41 +3615,43 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="66">
         <v>1</v>
       </c>
       <c r="B6" s="58">
         <v>44858</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="65">
         <v>860906041143840</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="59"/>
@@ -3653,7 +3681,7 @@
       </c>
       <c r="S6" s="66"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3662,21 +3690,23 @@
       <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="66">
         <v>2</v>
       </c>
       <c r="B7" s="58">
         <v>44858</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="65">
         <v>861359036827507</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="59" t="s">
@@ -3712,31 +3742,33 @@
       </c>
       <c r="S7" s="66"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="66">
         <v>3</v>
       </c>
       <c r="B8" s="58">
         <v>44858</v>
       </c>
       <c r="C8" s="58"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="65">
         <v>862549040692777</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="59" t="s">
+        <v>91</v>
+      </c>
       <c r="I8" s="60"/>
       <c r="J8" s="61" t="s">
         <v>75</v>
@@ -3761,28 +3793,30 @@
       </c>
       <c r="S8" s="66"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="66">
         <v>4</v>
       </c>
       <c r="B9" s="58">
         <v>44858</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="56" t="s">
+      <c r="C9" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="65">
         <v>860906041166718</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="59" t="s">
@@ -3816,7 +3850,7 @@
       </c>
       <c r="S9" s="66"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3845,7 +3879,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="66"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3874,7 +3908,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="66"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3903,7 +3937,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3934,7 +3968,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3963,7 +3997,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3992,7 +4026,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4021,7 +4055,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5737,6 +5771,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5748,13 +5789,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5798,41 +5832,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5877,58 +5911,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -5953,23 +5987,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="79"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,7 +6029,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6026,7 +6060,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6055,7 +6089,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6084,7 +6118,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6113,7 +6147,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6142,7 +6176,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6171,7 +6205,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6202,7 +6236,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6231,7 +6265,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6260,7 +6294,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6289,7 +6323,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7520,6 +7554,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7531,13 +7572,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
